--- a/Data/RegressionAPI.xlsx
+++ b/Data/RegressionAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshverma/IdeaProjects/AutomationPack/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9E59D1-1090-3A45-A0CA-EFCB995B0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C66A619-F59D-2943-8D97-7FB0BCA3D980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17040" xr2:uid="{6B8C0FC8-8986-4A42-A027-2171E9EAAECE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Run</t>
   </si>
@@ -49,49 +49,10 @@
     <t>yes</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>Response</t>
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@46bb0bdf</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@173511ff</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@2ccc9681</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@1b1252c8</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@40bd0f8</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@2f4d01b6</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@5be4be74</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@f017dd0</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@3a6e9856</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@7604198a</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@b7d2d51</t>
-  </si>
-  <si>
-    <t>io.restassured.internal.RestAssuredResponseImpl@147efd9</t>
   </si>
   <si>
     <t>{
@@ -100,6 +61,9 @@
   "userId": 101,
   "id": 101
 }</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -455,7 +419,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -486,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>6</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -497,13 +461,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>6</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -511,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>6</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -525,13 +489,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>6</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
